--- a/server/data/users.xlsx
+++ b/server/data/users.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kenneth/Kenneth/Codes/3-invest-ui/lottery-x/server/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA492478-BC53-224A-B5C6-8DD752C4799B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1C203C3-2A03-B645-9E9C-2C798E3D785A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="27100" windowHeight="15700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="168">
   <si>
     <t>工号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -585,65 +585,44 @@
     <t>张路路</t>
   </si>
   <si>
-    <t>今日投资/零售事业部</t>
-  </si>
-  <si>
-    <t>今日投资/技术中心</t>
-  </si>
-  <si>
-    <t>今日投资/技术中心/公共平台组</t>
-  </si>
-  <si>
-    <t>今日投资/技术中心/系统运行组</t>
-  </si>
-  <si>
-    <t>今日投资/财务部</t>
-  </si>
-  <si>
-    <t>今日投资/量化数据区;今日投资/量化数据区/金融工程部</t>
-  </si>
-  <si>
-    <t>今日投资/量化数据区/数据采编部</t>
-  </si>
-  <si>
-    <t>今日投资/量化数据区/数据采编部/长沙团队</t>
-  </si>
-  <si>
-    <t>今日投资/量化数据区/金融工程部</t>
-  </si>
-  <si>
-    <t>今日投资/人力行政部</t>
-  </si>
-  <si>
-    <t>今日投资/机构事业部/产品研发组;今日投资/机构事业部</t>
-  </si>
-  <si>
-    <t>今日投资/机构事业部</t>
-  </si>
-  <si>
-    <t>今日投资/机构事业部/市场拓展组</t>
-  </si>
-  <si>
-    <t>今日投资/机构事业部/市场拓展组/华东区</t>
-  </si>
-  <si>
-    <t>今日投资/机构事业部/市场拓展组/华南区</t>
-  </si>
-  <si>
-    <t>今日投资/机构事业部/市场拓展组/华北区</t>
-  </si>
-  <si>
-    <t>今日投资/机构事业部/技术研发组</t>
-  </si>
-  <si>
-    <t>今日投资/机构事业部/产品研发组</t>
+    <t>零售事业部</t>
+  </si>
+  <si>
+    <t>财务部</t>
+  </si>
+  <si>
+    <t>人力行政部</t>
+  </si>
+  <si>
+    <t>总经理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副总经理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技术中心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据采编部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金融工程部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机构事业部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -667,9 +646,14 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="苹方-简 常规体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="苹方-简 常规体"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -682,7 +666,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -716,21 +700,24 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -758,7 +745,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -793,7 +780,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -845,7 +832,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1049,8 +1036,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="B81" sqref="B81"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B73" sqref="B73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="26.6640625" defaultRowHeight="18"/>
@@ -1059,13 +1046,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1073,19 +1060,21 @@
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="3"/>
+      <c r="C2" s="5" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="3" spans="1:3" ht="19">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="5" t="s">
         <v>159</v>
       </c>
     </row>
@@ -1093,10 +1082,10 @@
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="5" t="s">
         <v>159</v>
       </c>
     </row>
@@ -1104,10 +1093,10 @@
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="5" t="s">
         <v>159</v>
       </c>
     </row>
@@ -1115,10 +1104,10 @@
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="5" t="s">
         <v>159</v>
       </c>
     </row>
@@ -1126,10 +1115,10 @@
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="5" t="s">
         <v>159</v>
       </c>
     </row>
@@ -1137,10 +1126,10 @@
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="5" t="s">
         <v>159</v>
       </c>
     </row>
@@ -1148,10 +1137,10 @@
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="5" t="s">
         <v>159</v>
       </c>
     </row>
@@ -1159,10 +1148,10 @@
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="5" t="s">
         <v>159</v>
       </c>
     </row>
@@ -1170,10 +1159,10 @@
       <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="5" t="s">
         <v>159</v>
       </c>
     </row>
@@ -1181,10 +1170,10 @@
       <c r="A12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="5" t="s">
         <v>159</v>
       </c>
     </row>
@@ -1192,10 +1181,10 @@
       <c r="A13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="5" t="s">
         <v>159</v>
       </c>
     </row>
@@ -1203,10 +1192,10 @@
       <c r="A14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="5" t="s">
         <v>159</v>
       </c>
     </row>
@@ -1214,186 +1203,186 @@
       <c r="A15" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>160</v>
+      <c r="C15" s="5" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="19">
       <c r="A16" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>161</v>
+      <c r="C16" s="5" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="19">
       <c r="A17" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>161</v>
+      <c r="C17" s="5" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="19">
       <c r="A18" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>161</v>
+      <c r="C18" s="5" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="19">
       <c r="A19" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>161</v>
+      <c r="C19" s="5" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="19">
       <c r="A20" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>161</v>
+      <c r="C20" s="5" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="19">
       <c r="A21" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>161</v>
+      <c r="C21" s="5" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="19">
       <c r="A22" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>161</v>
+      <c r="C22" s="5" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="19">
       <c r="A23" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>162</v>
+      <c r="C23" s="5" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="19">
       <c r="A24" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>162</v>
+      <c r="C24" s="5" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="19">
       <c r="A25" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>162</v>
+      <c r="C25" s="5" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="19">
       <c r="A26" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>162</v>
+      <c r="C26" s="5" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="19">
       <c r="A27" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C27" s="3" t="s">
-        <v>162</v>
+      <c r="C27" s="5" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="19">
       <c r="A28" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C28" s="3" t="s">
-        <v>163</v>
+      <c r="C28" s="5" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="19">
       <c r="A29" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C29" s="3" t="s">
-        <v>163</v>
+      <c r="C29" s="5" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="19">
       <c r="A30" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="C30" s="3" t="s">
-        <v>164</v>
+      <c r="C30" s="5" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="19">
       <c r="A31" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="5" t="s">
         <v>165</v>
       </c>
     </row>
@@ -1401,10 +1390,10 @@
       <c r="A32" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="5" t="s">
         <v>165</v>
       </c>
     </row>
@@ -1412,10 +1401,10 @@
       <c r="A33" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="5" t="s">
         <v>165</v>
       </c>
     </row>
@@ -1423,10 +1412,10 @@
       <c r="A34" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="5" t="s">
         <v>165</v>
       </c>
     </row>
@@ -1434,10 +1423,10 @@
       <c r="A35" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C35" s="5" t="s">
         <v>165</v>
       </c>
     </row>
@@ -1445,10 +1434,10 @@
       <c r="A36" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" s="5" t="s">
         <v>165</v>
       </c>
     </row>
@@ -1456,473 +1445,473 @@
       <c r="A37" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C37" s="3" t="s">
-        <v>166</v>
+      <c r="C37" s="5" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="19">
       <c r="A38" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C38" s="3" t="s">
-        <v>166</v>
+      <c r="C38" s="5" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="19">
       <c r="A39" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="C39" s="3" t="s">
-        <v>166</v>
+      <c r="C39" s="5" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="19">
       <c r="A40" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="C40" s="3" t="s">
-        <v>166</v>
+      <c r="C40" s="5" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="19">
       <c r="A41" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B41" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C41" s="3" t="s">
-        <v>166</v>
+      <c r="C41" s="5" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="19">
       <c r="A42" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B42" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C42" s="3" t="s">
-        <v>166</v>
+      <c r="C42" s="5" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="19">
       <c r="A43" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B43" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C43" s="3" t="s">
-        <v>166</v>
+      <c r="C43" s="5" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="19">
       <c r="A44" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B44" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="C44" s="3" t="s">
-        <v>166</v>
+      <c r="C44" s="5" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="19">
       <c r="A45" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B45" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="C45" s="3" t="s">
-        <v>166</v>
+      <c r="C45" s="5" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="19">
       <c r="A46" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B46" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="C46" s="3" t="s">
-        <v>166</v>
+      <c r="C46" s="5" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="19">
       <c r="A47" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B47" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="C47" s="3" t="s">
-        <v>166</v>
+      <c r="C47" s="5" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="19">
       <c r="A48" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="B48" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="C48" s="3" t="s">
-        <v>166</v>
+      <c r="C48" s="5" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="19">
       <c r="A49" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="B49" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="C49" s="3" t="s">
-        <v>166</v>
+      <c r="C49" s="5" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="19">
       <c r="A50" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="B50" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C50" s="3" t="s">
-        <v>166</v>
+      <c r="C50" s="5" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="19">
       <c r="A51" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="B51" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="C51" s="3" t="s">
-        <v>167</v>
+      <c r="C51" s="5" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="19">
       <c r="A52" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B52" s="4" t="s">
+      <c r="B52" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="C52" s="3" t="s">
-        <v>167</v>
+      <c r="C52" s="5" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="19">
       <c r="A53" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="B53" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="C53" s="3" t="s">
-        <v>168</v>
+      <c r="C53" s="5" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="19">
       <c r="A54" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B54" s="4" t="s">
+      <c r="B54" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="C54" s="3" t="s">
-        <v>168</v>
+      <c r="C54" s="5" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="19">
       <c r="A55" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B55" s="4" t="s">
+      <c r="B55" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="C55" s="3" t="s">
-        <v>168</v>
+      <c r="C55" s="5" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="19">
       <c r="A56" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B56" s="4" t="s">
+      <c r="B56" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="C56" s="3" t="s">
-        <v>169</v>
+      <c r="C56" s="5" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="19">
       <c r="A57" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="B57" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C57" s="3" t="s">
-        <v>170</v>
+      <c r="C57" s="5" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="19">
       <c r="A58" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B58" s="4" t="s">
+      <c r="B58" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="C58" s="3" t="s">
-        <v>171</v>
+      <c r="C58" s="5" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="19">
       <c r="A59" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B59" s="4" t="s">
+      <c r="B59" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="C59" s="3" t="s">
-        <v>172</v>
+      <c r="C59" s="5" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="19">
       <c r="A60" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B60" s="4" t="s">
+      <c r="B60" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="C60" s="3" t="s">
-        <v>172</v>
+      <c r="C60" s="5" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="19">
       <c r="A61" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B61" s="4" t="s">
+      <c r="B61" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C61" s="3" t="s">
-        <v>172</v>
+      <c r="C61" s="5" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="19">
       <c r="A62" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B62" s="4" t="s">
+      <c r="B62" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="C62" s="3" t="s">
-        <v>173</v>
+      <c r="C62" s="5" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="19">
       <c r="A63" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B63" s="4" t="s">
+      <c r="B63" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="C63" s="3" t="s">
-        <v>174</v>
+      <c r="C63" s="5" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="19">
       <c r="A64" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B64" s="4" t="s">
+      <c r="B64" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="C64" s="3" t="s">
-        <v>175</v>
+      <c r="C64" s="5" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="19">
       <c r="A65" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B65" s="4" t="s">
+      <c r="B65" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="C65" s="3" t="s">
-        <v>175</v>
+      <c r="C65" s="5" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="19">
       <c r="A66" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B66" s="4" t="s">
+      <c r="B66" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="C66" s="3" t="s">
-        <v>175</v>
+      <c r="C66" s="5" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="19">
       <c r="A67" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B67" s="4" t="s">
+      <c r="B67" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="C67" s="3" t="s">
-        <v>175</v>
+      <c r="C67" s="5" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="19">
       <c r="A68" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B68" s="4" t="s">
+      <c r="B68" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="C68" s="3" t="s">
-        <v>175</v>
+      <c r="C68" s="5" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="19">
       <c r="A69" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B69" s="4" t="s">
+      <c r="B69" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="C69" s="3" t="s">
-        <v>175</v>
+      <c r="C69" s="5" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="19">
       <c r="A70" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B70" s="4" t="s">
+      <c r="B70" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="C70" s="3" t="s">
-        <v>175</v>
+      <c r="C70" s="5" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="19">
       <c r="A71" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B71" s="4" t="s">
+      <c r="B71" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="C71" s="3" t="s">
-        <v>175</v>
+      <c r="C71" s="5" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="19">
       <c r="A72" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B72" s="4" t="s">
+      <c r="B72" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="C72" s="3" t="s">
-        <v>176</v>
+      <c r="C72" s="5" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="19">
       <c r="A73" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B73" s="4" t="s">
+      <c r="B73" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="C73" s="3" t="s">
-        <v>176</v>
+      <c r="C73" s="5" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="19">
       <c r="A74" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B74" s="4" t="s">
+      <c r="B74" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="C74" s="3" t="s">
-        <v>176</v>
+      <c r="C74" s="5" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="19">
       <c r="A75" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B75" s="4" t="s">
+      <c r="B75" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="C75" s="3" t="s">
-        <v>176</v>
+      <c r="C75" s="5" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="19">
       <c r="A76" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B76" s="4" t="s">
+      <c r="B76" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="C76" s="3" t="s">
-        <v>176</v>
+      <c r="C76" s="5" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="19">
       <c r="A77" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B77" s="4" t="s">
+      <c r="B77" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="C77" s="3" t="s">
-        <v>176</v>
+      <c r="C77" s="5" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="19">
       <c r="A78" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B78" s="4" t="s">
+      <c r="B78" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="C78" s="3" t="s">
-        <v>176</v>
+      <c r="C78" s="5" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="19">
       <c r="A79" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B79" s="4" t="s">
+      <c r="B79" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="C79" s="3" t="s">
-        <v>176</v>
+      <c r="C79" s="5" t="s">
+        <v>167</v>
       </c>
     </row>
   </sheetData>

--- a/server/data/users.xlsx
+++ b/server/data/users.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kenneth/Kenneth/Codes/3-invest-ui/lottery-x/server/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1C203C3-2A03-B645-9E9C-2C798E3D785A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E24E26E9-B2C0-6C40-ABC3-572F391AEB4C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="27100" windowHeight="15700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -570,9 +570,6 @@
     <t>郭栗栗</t>
   </si>
   <si>
-    <t>罗兴</t>
-  </si>
-  <si>
     <t>马宁</t>
   </si>
   <si>
@@ -615,6 +612,26 @@
   </si>
   <si>
     <t>机构事业部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>罗兴</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="苹方-简 常规体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ✨</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -622,7 +639,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -654,6 +671,18 @@
     <font>
       <sz val="11"/>
       <name val="苹方-简 常规体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="SimSun"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="苹方-简 常规体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -717,7 +746,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1036,8 +1065,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B73" sqref="B73"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="26.6640625" defaultRowHeight="18"/>
@@ -1064,7 +1093,7 @@
         <v>81</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="19">
@@ -1075,7 +1104,7 @@
         <v>82</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="19">
@@ -1086,7 +1115,7 @@
         <v>83</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="19">
@@ -1097,7 +1126,7 @@
         <v>84</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="19">
@@ -1108,7 +1137,7 @@
         <v>85</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="19">
@@ -1119,7 +1148,7 @@
         <v>86</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="19">
@@ -1130,7 +1159,7 @@
         <v>87</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="19">
@@ -1141,7 +1170,7 @@
         <v>88</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="19">
@@ -1152,7 +1181,7 @@
         <v>89</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="19">
@@ -1163,7 +1192,7 @@
         <v>90</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="19">
@@ -1174,7 +1203,7 @@
         <v>91</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="19">
@@ -1185,7 +1214,7 @@
         <v>92</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="19">
@@ -1196,7 +1225,7 @@
         <v>93</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="19">
@@ -1207,7 +1236,7 @@
         <v>94</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="19">
@@ -1218,7 +1247,7 @@
         <v>95</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="19">
@@ -1229,7 +1258,7 @@
         <v>96</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="19">
@@ -1240,7 +1269,7 @@
         <v>97</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="19">
@@ -1251,7 +1280,7 @@
         <v>98</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="19">
@@ -1262,7 +1291,7 @@
         <v>99</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="19">
@@ -1273,7 +1302,7 @@
         <v>100</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="19">
@@ -1284,7 +1313,7 @@
         <v>101</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="19">
@@ -1295,7 +1324,7 @@
         <v>102</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="19">
@@ -1306,7 +1335,7 @@
         <v>103</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="19">
@@ -1317,7 +1346,7 @@
         <v>104</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="19">
@@ -1328,7 +1357,7 @@
         <v>105</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="19">
@@ -1339,7 +1368,7 @@
         <v>106</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="19">
@@ -1350,7 +1379,7 @@
         <v>107</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="19">
@@ -1361,7 +1390,7 @@
         <v>108</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="19">
@@ -1372,7 +1401,7 @@
         <v>109</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="19">
@@ -1383,7 +1412,7 @@
         <v>110</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="19">
@@ -1394,7 +1423,7 @@
         <v>111</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="19">
@@ -1405,7 +1434,7 @@
         <v>112</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="19">
@@ -1416,7 +1445,7 @@
         <v>113</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="19">
@@ -1427,7 +1456,7 @@
         <v>114</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="19">
@@ -1438,7 +1467,7 @@
         <v>115</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="19">
@@ -1449,7 +1478,7 @@
         <v>116</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="19">
@@ -1460,7 +1489,7 @@
         <v>117</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="19">
@@ -1471,7 +1500,7 @@
         <v>118</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="19">
@@ -1482,7 +1511,7 @@
         <v>119</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="19">
@@ -1493,7 +1522,7 @@
         <v>120</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="19">
@@ -1504,7 +1533,7 @@
         <v>121</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="19">
@@ -1515,7 +1544,7 @@
         <v>122</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="19">
@@ -1526,7 +1555,7 @@
         <v>123</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="19">
@@ -1537,7 +1566,7 @@
         <v>124</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="19">
@@ -1548,7 +1577,7 @@
         <v>125</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="19">
@@ -1559,7 +1588,7 @@
         <v>126</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="19">
@@ -1570,7 +1599,7 @@
         <v>127</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="19">
@@ -1581,7 +1610,7 @@
         <v>128</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="19">
@@ -1592,7 +1621,7 @@
         <v>129</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="19">
@@ -1603,7 +1632,7 @@
         <v>130</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="19">
@@ -1614,7 +1643,7 @@
         <v>131</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="19">
@@ -1625,7 +1654,7 @@
         <v>132</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="19">
@@ -1636,7 +1665,7 @@
         <v>133</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="19">
@@ -1647,7 +1676,7 @@
         <v>134</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="19">
@@ -1658,7 +1687,7 @@
         <v>135</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="19">
@@ -1669,7 +1698,7 @@
         <v>136</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="19">
@@ -1680,7 +1709,7 @@
         <v>137</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="19">
@@ -1691,7 +1720,7 @@
         <v>138</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="19">
@@ -1702,7 +1731,7 @@
         <v>139</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="19">
@@ -1713,7 +1742,7 @@
         <v>140</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="19">
@@ -1724,7 +1753,7 @@
         <v>141</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="19">
@@ -1735,7 +1764,7 @@
         <v>142</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="19">
@@ -1746,7 +1775,7 @@
         <v>143</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="19">
@@ -1757,7 +1786,7 @@
         <v>144</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="19">
@@ -1768,7 +1797,7 @@
         <v>145</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="19">
@@ -1779,7 +1808,7 @@
         <v>146</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="19">
@@ -1790,7 +1819,7 @@
         <v>147</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="19">
@@ -1801,7 +1830,7 @@
         <v>148</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="19">
@@ -1812,7 +1841,7 @@
         <v>149</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="19">
@@ -1823,7 +1852,7 @@
         <v>150</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="19">
@@ -1834,7 +1863,7 @@
         <v>151</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="19">
@@ -1845,7 +1874,7 @@
         <v>152</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="19">
@@ -1856,7 +1885,7 @@
         <v>153</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="19">
@@ -1864,10 +1893,10 @@
         <v>76</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="19">
@@ -1875,10 +1904,10 @@
         <v>77</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="19">
@@ -1886,10 +1915,10 @@
         <v>78</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="19">
@@ -1897,10 +1926,10 @@
         <v>79</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="19">
@@ -1908,10 +1937,10 @@
         <v>80</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
